--- a/competencias.xlsx
+++ b/competencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Ramirez\Desktop\Consultoria\Dashboards\CentroOrtopediaPoblado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448F745C-20F5-4E59-B117-93B9B58CD4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71151DC-AE17-454C-8D8C-F06E557855FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
+    <workbookView xWindow="35745" yWindow="1905" windowWidth="17340" windowHeight="12330" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
   <si>
     <t>Toma de Decisiones</t>
   </si>
@@ -297,15 +297,6 @@
   </si>
   <si>
     <t>Se mantiene al día con información de la competencia y las tendencias del mercado, identifican oportunidades de negocio para la organización, demuestra conocimiento financiero; controla costos y piensa en términos de beneficios, pérdidas y valor agregado.</t>
-  </si>
-  <si>
-    <t>Mantiene comunicación con los clientes actuales y busca crear nuevos contactos que posibiliten expandir el mercado.</t>
-  </si>
-  <si>
-    <t>Ha desarrollado habilidades de negociación que le permiten presentar propuestas comerciales que son acogidas favorablemente.</t>
-  </si>
-  <si>
-    <t>Se mantiene al día con la información de la competencia y las tendencias del mercado.</t>
   </si>
   <si>
     <t>Orientación al Servicio</t>
@@ -746,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601BDD1C-315F-498A-83CA-DB10B503864B}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,25 +752,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -810,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -833,13 +824,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -856,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -873,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -896,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -919,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -942,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -965,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>36</v>
@@ -988,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
@@ -1011,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
@@ -1034,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
@@ -1051,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>53</v>
@@ -1074,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>58</v>
@@ -1097,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>63</v>
@@ -1120,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
@@ -1143,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
@@ -1166,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>78</v>
@@ -1189,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>83</v>
@@ -1206,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>85</v>
@@ -1214,37 +1205,31 @@
       <c r="D21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/competencias.xlsx
+++ b/competencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Ramirez\Desktop\Consultoria\Dashboards\CentroOrtopediaPoblado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71151DC-AE17-454C-8D8C-F06E557855FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEC3C5-F5E6-4F2F-975C-96F96DEAE5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35745" yWindow="1905" windowWidth="17340" windowHeight="12330" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,254 +36,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>Toma de Decisiones</t>
   </si>
   <si>
-    <t>Asume la responsabilidad de las acciones, proyectos y personas, toma la iniciativa, actúa con confianza y trabaja bajo su propia dirección, inicia y genera actividades, e introduce cambios en los procesos de trabajo, toma decisiones rápidas y claras que pueden implicar elecciones difíciles o riesgos considerados.</t>
-  </si>
-  <si>
-    <t>Toma la iniciativa y trabaja con  autonomía sin necesitar supervisión permanente.</t>
-  </si>
-  <si>
-    <t>Actúa cuando encuentra desviaciones del estandar o parámetros definidos y no espera a que se den las consecuencias.</t>
-  </si>
-  <si>
-    <t>Toma decisiones que implican compromiso de recursos y/o presenta propuestas innovadoras en pro del mejoramiento continuo de manera responsable e informada. Asume las consecuencias derivadas de las decisiones tomadas.</t>
-  </si>
-  <si>
     <t>Capacidad para Dirigir</t>
   </si>
   <si>
     <t>Proporciona a los demás con una dirección clara, motiva y delega la responsabilidad a los demás. Ofrece al personal oportunidades de desarrollo y capacitación, establece normas de conducta apropiadas.</t>
   </si>
   <si>
-    <t>Es claro a la hora de transmitir al equipo de trabajo las instrucciones a seguir.</t>
-  </si>
-  <si>
-    <t>Realiza seguimiento a la ejecución de los procesos bajo su cargo y actúa con diligencia frente a desviaciones.</t>
-  </si>
-  <si>
     <t>Se preocupa por el desarrollo de otros y de proponer retos al equipo de trabajo o particularmente a alguno de sus miembros.</t>
   </si>
   <si>
     <t>Trabajo en equipo</t>
   </si>
   <si>
-    <t>Reconoce la contribución y el rol de cada uno de los miembros del equipo incluyendo los propios.</t>
-  </si>
-  <si>
-    <t>Establece relaciones empáticas con sus interlocutores. Escucha y comparte información relevante para la ejecución de su labor.</t>
-  </si>
-  <si>
-    <t>Es solidario y apoya a otros en la realización de su labor con el ánimo de realizar los objetivos colectivos del equipo de trabajo.</t>
-  </si>
-  <si>
     <t>Integridad/Adhesión a Valores</t>
   </si>
   <si>
-    <t>Defiende la ética y los valores, demuestra integridad, promueve y defiende la igualdad de oportunidades, genera diversos equipos, fomenta la responsabilidad individual y organizacional hacia la comunidad y el medio ambiente.</t>
-  </si>
-  <si>
     <t>Desarrollo de Relaciones</t>
   </si>
   <si>
-    <t>Establece buenas relaciones con los pacientes y el personal; construye redes amplias y eficaces de contactos dentro y fuera de la organización; se relaciona bien con la gente en todos los niveles, maneja conflictos, utiliza el humor adecuadamente para mejorar las relaciones con los demás</t>
-  </si>
-  <si>
-    <t>Establece buenas relaciones con los pacientes y los demás miembros de la organización.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando emerge un conflicto, lo gestiona de manera adecuada. Basada en  el respeto </t>
-  </si>
-  <si>
-    <t>Construye y mantiene una red de contactos y de relaciones que facilita la resolución de problemas.</t>
-  </si>
-  <si>
     <t>Impacto e influencia</t>
   </si>
   <si>
-    <t>Causa una fuerte impresión personal sobre los demás; logra acuerdos y compromisos claros con los demás mediante la persuasión, el convencimiento y la negociación; promueve ideas en nombre propio o de terceros; hace uso efectivo de los procesos y  políticas para influir y persuadir a los demás.</t>
-  </si>
-  <si>
-    <t>Es percibido por su equipo de trabajo y por otros como una figura que inspira seguimiento/ascendencia/autoridad.</t>
-  </si>
-  <si>
-    <t>Persuade a otros y convence con argumentos para que se realicen planes e ideas.</t>
-  </si>
-  <si>
-    <t>Verifica y hace seguimiento de tal forma que logra que los otros se vinculen en la realización de las actividades acordadas o cumplan con los compromisos adquiridos.</t>
-  </si>
-  <si>
     <t>Comunicación Efectiva</t>
   </si>
   <si>
-    <t xml:space="preserve">Habla con claridad y fluidez; expresa opiniones, informaciones y puntos clave de un argumento;  se compromete al hablar en público  con las opiniones que emite ,genera   confianza, responde rápidamente a las necesidades de un público y sus reacciones y comentarios, proyecta credibilidad. </t>
-  </si>
-  <si>
-    <t>Se comunica a nivel escrito y verbal de manera eficaz.</t>
-  </si>
-  <si>
-    <t>Su discurso es claro y coherente, además se vale de distintas ayudas para llegarle a su público de manera empática (poniéndose en su lugar y circunstancias; usando su lenguaje y canales de comunicación preferentes).</t>
-  </si>
-  <si>
-    <t>Es asertivo (usa las palabras adecuadas, en el momento conveniente, con los gestos y el tono apropiados) a la hora de expresar desacuerdos, presentarse una desavenencia o conflicto.</t>
-  </si>
-  <si>
     <t>Realización de Informes y Reportes</t>
   </si>
   <si>
-    <t>Redacta de manera clara, concisa y correcta; escribe de manera convincente, cuidando la realidad que necesita reflejar ; evita el uso innecesario de jergas o lenguajes complicados, redacta de manera estructurada y lógica, estructura de información para satisfacer las necesidades y la comprensión del publico  al que va dirigida.</t>
-  </si>
-  <si>
-    <t>Completa de manera disciplinada los formatos que le corresponden siendo consecuente con la información soliciada.</t>
-  </si>
-  <si>
-    <t>Redacta de manera clara, cocisa y correcta.</t>
-  </si>
-  <si>
-    <t>Filtra con criterio la información relevante para el proceso y deja de lado aquella que no es necesaria o no le interesa a su público objetivo.</t>
-  </si>
-  <si>
     <t>Competencia Técnica</t>
   </si>
   <si>
-    <t>Aplica conocimientos especializados y detallados, desarrolla conocimiento y experiencia laboral (teórica y práctica) a través del desarrollo profesional continuo, comparte su experiencia profesional y conocimientos con los demás; utiliza la tecnología para alcanzar los objetivos de trabajo; demuestra coordinación física y resistencia adecuadas, habilidad manual, percepción espacial y destreza; demuestra comprensión de los distintos departamentos de la organización y funciones.</t>
-  </si>
-  <si>
-    <t>Evidencia en la práctica la ejecución de conocimientos técnicos/especiliazados.</t>
-  </si>
-  <si>
     <t>Conoce y utiliza adecuadamente la tecnología, instrumentos o herramientas puesta a su servicio para la ejecución de su labor.</t>
   </si>
   <si>
-    <t>Transmite y comparte el conocimiento a través de la socialización de aprendizajes.</t>
-  </si>
-  <si>
     <t>Capacidad de Análisis</t>
   </si>
   <si>
-    <t>Analiza datos numéricos, datos verbales y todas las demás fuentes de información, desglosa la información en sus componentes, patrones y relaciones; busca información adicional o una mayor comprensión de un problemas, hace juicios racionales de la información disponibles y el análisis; produce soluciones viables para una variedad de problemas; demuestra una comprensión de cómo un elemento puede ser parte de un sistemas mucho más grande.</t>
-  </si>
-  <si>
-    <t>Comprende y da razones sobre las causas y consecuencias de asuntos relacionados con la infromación que administra.</t>
-  </si>
-  <si>
-    <t>Busca información adicional.</t>
-  </si>
-  <si>
-    <t>Plantea arternativas de solución sustentado en la experticia, el conocimiento técnico y las circuntancias del contexto.</t>
-  </si>
-  <si>
     <t>Capacidad de Aprendizaje</t>
   </si>
   <si>
-    <t xml:space="preserve">Aprende rápidamente nuevas tareas y memoriza la información rápidamente, recopila información global para sustentar la toma de decisiones; demuestra una rápida comprensión de la nueva información presentada, alienta un enfoque de aprendizaje organizacional (es decir, aprende de los éxitos y fracasos y solicita la retroalimentación del personal y de los usuarios). Administra el conocimiento (recopila, clasifica y difunda el conocimiento que es de utilidad para la organización). </t>
-  </si>
-  <si>
-    <t>Da razón por información que se la ha brindado previamente.</t>
-  </si>
-  <si>
-    <t>Comprende con facilidad intrucciones nuevas y las sigue consecuentemente.</t>
-  </si>
-  <si>
-    <t>Busca, solicita y averigua nueva información para desarrollar o mejor su labor.</t>
-  </si>
-  <si>
     <t>Capacidad Creativa e de Innovación</t>
   </si>
   <si>
-    <t xml:space="preserve">Produce nuevas ideas, enfoques o puntos de vista; crea productos o diseños innovadores, produce una gama de soluciones a los problemas; busca oportunidades para el mejoramiento de la organización; desarrolla iniciativas de cambio efectivo. </t>
-  </si>
-  <si>
     <t>Pensamiento Estratégico</t>
   </si>
   <si>
-    <t>Trabaja estratégicamente para alcanzar los objetivos de la organización, establece y desarrolla las estrategias, identifica, desarrolla visiones positivas y convincentes del potencial futuro de la organización, tiene en cuenta una amplia gama de temas a través, y en relación con la organización.</t>
-  </si>
-  <si>
-    <t>Conoce los procesos trasversalmente y tiene una mirada global de la organización.</t>
-  </si>
-  <si>
-    <t>Comprende el negocio de la organización y su contexto en el ámbito local y nacional.</t>
-  </si>
-  <si>
-    <t>Propone alternativas y soluciones innovadoras respondiendo a las necesidades del mercado. Se anticipa a los posibles escenarios. Genera alternativas de solución innovadoras que permiten desarrollar los procesos, la organización o enconrar nuevos negocios.</t>
-  </si>
-  <si>
     <t>Planeación y Organización</t>
   </si>
   <si>
     <t>Establece unos objetivos claramente definidos, planea actividades y proyectos de actividades con anticipación y toma en cuenta la posible evolución de las circunstancias; maneja el tiempo de manera efectiva; identifica y organiza los recursos necesarios para realizar las tareas; monitorea el rendimiento de acuerdo a plazos e hitos.</t>
   </si>
   <si>
-    <t>Planea anticipadamente sus actividades teniendo en cuenta distintas variables que pueden influir en la realización de su labor.</t>
-  </si>
-  <si>
     <t>Dispone y organiza los recursos necesarios para la realización de un proyecto o una activdad. Maneja el tiempo de manera efectiva.</t>
   </si>
   <si>
-    <t>Tiene claridad/propone objetivos realizables, se pone o conoce las metas a cumplir, y monitorea permanente su aproximación o realización.</t>
-  </si>
-  <si>
     <t>Orientación de Resultados</t>
   </si>
   <si>
-    <t>Se centra en las necesidades y la satisfacción del cliente, establece altos estándares de calidad y cantidad, controla y mantiene la calidad y la productividad, trabaja de manera sistemática, metódica y ordenada, logra de manera consistente los objetivos del proyecto.</t>
-  </si>
-  <si>
-    <t>Monitorea de manera permanente el desarrollo de sus actividades para cumplir con los objetivos.</t>
-  </si>
-  <si>
     <t>Los resultados de su trabajo son satisfactorios para el cliente interno o externo.</t>
   </si>
   <si>
-    <t>Se esfuerza y logra los objetivos y metas en los proyectos, tareas asignadas.</t>
-  </si>
-  <si>
     <t>Adhesión a instrucciones y procedimientos</t>
   </si>
   <si>
-    <t>Sigue adecuadamente las instrucciones de otros sin desafiar innecesariamente a la autoridad. Sigue los procedimientos y políticas. Cumple con los horarios, llega puntual al trabajo y reuniones. Demuestra su compromiso con la organización, cumple con las obligaciones legales y con los requisitos de seguridad de la función.</t>
-  </si>
-  <si>
     <t>Cumple con los horarios y turnos establecidos. Se esfuerza por ser puntual en sus compromisos laborales.</t>
   </si>
   <si>
-    <t>Sigue las instrucciones impartidas sin desafiar innecesariamente la autoridad.</t>
-  </si>
-  <si>
-    <t>Se mantiene dentro de los procedimientos y políticas establecidas.</t>
-  </si>
-  <si>
     <t>Flexibilidad/Adaptabilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Se adapta a las circunstancias cambiantes; acepta nuevas ideas e iniciativas de cambio, adapta su estilo interpersonal para adaptarse a diferentes personas o situaciones, muestra respeto y sensibilidad hacia las diferencias culturales y religiosas; hace frente a la ambigüedad mediante el uso positivo de las oportunidades que presenta. </t>
-  </si>
-  <si>
-    <t>Se adapta a las circunstancias cambiantes.</t>
-  </si>
-  <si>
-    <t>Acepta y propone ideas e iniciativas de cambio.</t>
-  </si>
-  <si>
     <t>Evidencia tolerancia frente a la diferencia en modos de ser, pensar y expresarse. Hace esfuerzos por comprender los puntos de vista diversos.</t>
   </si>
   <si>
     <t>Capacidad de Autocontrol</t>
   </si>
   <si>
-    <t>Trabaja de manera productiva en un ambiente de alta presión; mantiene las emociones bajo control en situaciones difíciles, equilibra las exigencias del trabajo con la vida personal. Mantiene una actitud positiva en el trabajo, maneja bien las críticas y aprende de ellas.</t>
-  </si>
-  <si>
-    <t>Mantiene sus emociones bajo control.</t>
-  </si>
-  <si>
-    <t>Frente a una alta demanda, responde con sentido de urgencia priorizando</t>
-  </si>
-  <si>
     <t>Su actitud facilita la realización de actividades conjuntas aún en situaciones de alta presión.</t>
   </si>
   <si>
@@ -302,18 +134,6 @@
     <t>Orientación al Servicio</t>
   </si>
   <si>
-    <t>Es la capacidad de ejecutar las responsabilidades asignadas de manera confiable y oportuna para las personas con quien y para quienes trabaja.  Genera soluciones para satisfacer las necesidades de los demás y se esfuerza por mejorar continuamente su servicio. Identifica y responde a las necesidades del cliente para entregarle productos o servicios que cumplan con sus requerimientos e incluso superen sus expectativas.</t>
-  </si>
-  <si>
-    <t>Identifica las necesidades del cliente</t>
-  </si>
-  <si>
-    <t>Conoce a su cliente y tiene buenas relaciones con él.</t>
-  </si>
-  <si>
-    <t>Da seguimiento a sus clientes, identifica oportunidades de mejora y ofrece respuesta oportunas</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -332,9 +152,6 @@
     <t>descriptor3</t>
   </si>
   <si>
-    <t xml:space="preserve">Muestra respeto por las opiniones y contribuciones de otros miembros del equipo, muestra empatía; escucha, consulta a los demás y se comunica de manera proactiva; apoya y se preocupa por los demás, consulta a los demás y comparte información y experiencia con ellos; se adapta al equipo y crea un espíritu de equipo; reconoce y recompensa la contribución de los otros; desarrolla y comunica abiertamente el auto-conocimiento, como una toma de conciencia de las fortalezas y debilidades personales. </t>
-  </si>
-  <si>
     <t>clusterName</t>
   </si>
   <si>
@@ -363,6 +180,260 @@
   </si>
   <si>
     <t>Servicio al Cliente</t>
+  </si>
+  <si>
+    <t>Capacidad para analizar diversas variantes u opciones, considerar las circunstancias existentes, los recursos disponibles y su impacto en el negocio, para luego seleccionar la alternativa más adecuada, con el fin de lograr el mejor resultado en función de los objetivos organizacionales. Implica capacidad para ejecutar las acciones con calidad, oportunidad y conciencia acerca de las posibles consecuencias de la decisión tomada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para generar más de una opción frente a cada situación a resolver, aplicar el mecanismo de selección de opciones establecido y ejecutar las opciones elegidas según los procedimientos vigentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para generar opciones múltiples frente a cada situación a resolver y especialmente ante cuestiones críticas o sensibles para la organización. Capacidad para aplicar el Evaluar diferentes posibilidades, a fin de obtener el mejor resultado, desde diversos puntos de vista, en función de los objetivos organizacionales. Implica capacidad para ejecutar las opciones elegidas con calidad y oportunidad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para tomar decisiones, mediante el desarrollo de opciones viables y convenientes, considerar las circunstancias existentes, los recursos disponibles y su impacto en el negocio. Capacidad para generar opciones múltiples frente a cada situación a resolver, y especialmente ante cuestiones críticas o sensibles para la organización.  </t>
+  </si>
+  <si>
+    <t>Es claro a la hora de transmitir al equipo de trabajo las instrucciones a seguir. Realiza seguimiento a la ejecución de los procesos bajo su cargo y actúa con diligencia frente a desviaciones.</t>
+  </si>
+  <si>
+    <t>Reconoce la contribución y el rol de cada uno de los miembros del equipo incluyendo los propios .Establece relaciones empáticas con sus interlocutores. Escucha y comparte información relevante para la ejecución de su labor.</t>
+  </si>
+  <si>
+    <t>Capacidad para colaborar y cooperar con otras personas, tanto de su proceso como de otras áreas de la organización, con el propósito de alcanzar los objetivos fijados; Capacidad para subordinar los intereses personales a los objetivos grupales y apoyar el trabajo de otros  procesos  de la organización. Implica ser un ejemplo para sus compañeros por su cooperación y buen trato con todas las personas.</t>
+  </si>
+  <si>
+    <t>Capacidad para fomentar el espíritu de colaboración en su equipo , promover el intercambio con otros procesos   de la organización  Implica expresar satisfacción por los éxitos de otros, pertenecientes o no al grupo inmediato de trabajo. Capacidad para subordinar los intereses personales a los objetivos grupales, con el propósito de alcanzar las metas organizacionales de corto y mediano plazo, y apoyar el trabajo de otras áreas de la organización. Capacidad para constituirse dentro de su área como un ejemplo de colaboración y cooperación, comprender a los otros, y generar y mantener un buen clima de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para actuar respetando los valores morales y las buenas prácti
+cas profesionales y para actuar consecuentemente con lo que dice, respe
+tando las pautas de conducta que le exige la organización.
+</t>
+  </si>
+  <si>
+    <t>Capacidad para guiar sus acciones en función de los valores morales y las buenas costumbres, y alentar a sus pares y compañeros de trabajo a hacer lo mismo. Capacidad para establecer con ellos relaciones de confianza. Capacidad para actuar en todo momento de manera congruente con lo que expresa</t>
+  </si>
+  <si>
+    <t>Capacidad para actuar en concordancia con los valores morales y las buenas prácticas y costumbres profesionales, y para estructurar a la organización en función de ellos. Capacidad para fomentar e inculcar en todos los integrantes de la empresa el respeto por los valores y la justicia en el trato con los demás. Capacidad para construir relaciones duraderas basadas en la honestidad de sus actos</t>
+  </si>
+  <si>
+    <t>Es la capacidad para interactuar con otras personas, y de establecer y mantener relaciones de trabajo con diferentes tipos de personas y en diferentes contextos, haciendo uso de la empatía, la diplomacia y la cordialidad correspondiente, para llevar a cabo metas relacionadas con el trabajo.</t>
+  </si>
+  <si>
+    <t>Establece buenas relaciones con los clientes y los demás miembros de la organización.Establece buenas relaciones con los  pacientes  y el personal;, maneja conflictos, utiliza el humor adecuadamente para mejorar las relaciones con los demás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando emerge un conflicto, lo gestiona de manera adecuada. Favoreciendo la continuidad de la relacion y el buen clima laboral. Manteniendo un leguaje verbal y  corporal que aporte a resolver la situacion de forma agil y respetuosa. </t>
+  </si>
+  <si>
+    <t>Construye y mantiene una red de contactos y de relaciones que facilita la resolución de problemas.mantiene  contactos  eficaces  dentro y fuera de la organización; se relaciona bien con  todas las personas cualquiera que sea su necesidad y su objetivo a conseguir.</t>
+  </si>
+  <si>
+    <t>Capacidad para persuadir a otras personas, utilizar argumentos sólidos y honestos, y acercar posiciones mediante el ejercicio del razonamiento conjunto, que contemple los intereses de todas las partes intervinientes y los objetivos organizacionales. Implica capacidad para influenciar a otros a través de estrategias que permitan construir acuerdos satisfactorios para todos, mediante la aplicación del concepto ganarganar.</t>
+  </si>
+  <si>
+    <t>Capacidad para persuadir a los integrantes de la propia área de trabajo en asuntos específicos que sean de su incumbencia, a través de negociaciones y argumentaciones veraces y honestas.</t>
+  </si>
+  <si>
+    <t>Capacidad para persuadir a otras personas de las que se necesita colaboración, a través de acciones concretas y argumentaciones adecuadas y honestas. Capacidad para llevar a cabo negociaciones que persuadan a la contraparte y contemplar sus intereses y los de la organización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para persuadir a otras personas mediante la utilización de argumentos sólidos y honestos. Capaci
+dad para desarrollar, ante situaciones especiales, conceptos, demostraciones y explicaciones fundadas y
+veraces, dirigidos a respaldar posiciones y criterios. Capacidad para utilizar tales argumentaciones con el
+fin de inclinar y acercar posiciones mediante el ejercicio del razonamiento conjunto, y contemplar los inte
+reses de todas las partes intervinientes y los objetivos de la organización como base para alcanzar el resul
+tado esperado. Capacidad para influenciar a otros a través de estrategias que permitan construir acuerdos
+satisfactorios para todos al procurar utilizar técnicas basadas en el concepto ganar-ganar.
+</t>
+  </si>
+  <si>
+    <t>Capacidad para escuchar y entender al otro, para transmitir en forma clara y oportuna la información requerida por los demás a fin de alcanzar los objetivos organizacionales, y para mantener canales de comunicación abiertos y  el  clima laboral optimo,  que abarquen los diferentes niveles de la organización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Capacidad para escuchar atentamente a sus interlocutores y comunicarse
+de manera clara y entendible. Capacidad para realizar las preguntas ade
+cuadas a fin de obtener la información que necesita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Capacidad para comunicarse de manera clara y concisa, de acuerdo con el tipo de interlo
+cutores con los que debe actuar. Capacidad para escuchar a los demás y asegurarse de
+comprender exactamente lo que quieren expresar. Capacidad para aprovechar los canales
+de comunicación existentes, tanto formales como informales, a fin de obtener la informa
+ción que necesita para sus tareas. Y materner relaciones de confianza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">		Capacidad para escuchar a los demás y para seleccionar los métodos más adecuados a fin de lograr comu
+nicaciones efectivas. Capacidad para minimizar las barreras y distorsiones que afectan la circulación de
+la información, y que por ende dificultan la adecuada ejecución de las tareas y el logro de los objetivos.
+Capacidad para promover dentro de su sector el intercambio permanente de información, con el propósi
+to de mantener a todas las personas adecuadamente informadas acerca de los temas que los afectan.
+Capacidad para hacer un uso efectivo de los canales de comunicación existentes, tanto formales como
+informales</t>
+  </si>
+  <si>
+    <t>Capacidad para optimizar los recursos disponibles –personas, materiales, etc.– y agregar valor a través de ideas, enfoques o soluciones originales o diferentes en relación con la tarea asignada, las funciones de las personas a cargo, y/o los procesos y métodos de la organización. Implica la actitud permanente de brindar aportes que signifiquen una solución a situaciones inusuales y/o aportes que permitan perfeccionar, modernizar u optimizar el uso de los recursos a cargo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para proponer acciones con el propósito de optimizar los recursos disponibles  ( personas  y/o  materiales)  y agregar valor al aportar soluciones factibles en relación con las tareas a cargo y/o los procesos y métodos  para su  equipo  de trabajo , generando  aportes, por medio de la entrega oportuna y veraz de informes , indicadores  para proponer mejoras.  </t>
+  </si>
+  <si>
+    <t>Capacidad para proponer acciones con el propósito de optimizar los recursos disponibles –personas, materiales, etc.– y agregar valor al aportar soluciones factibles en relación con las tareas a cargo y/o los procesos y métodos de su área de trabajo. Capacidad para brindar aportes que signifiquen una solución a situaciones que puedan ser mejoradas y/u optimizar el uso de los recursos a cargo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidad para diseñar métodos de trabajo para su área que permitan optimizar los recursos disponibles –personas, materiales, etc.– y agregar valor a través de ideas, enfoques o soluciones originales o diferentes en relación con las tareas de las personas a cargo y/o los procesos y métodos de la organización. Capacidad para generar la disposición permanente a brindar aportes que signifiquen una solución a situaciones inusuales y/o que permitan perfeccionar, modernizar u optimizar el uso de los recursos a cargo. Capacidad para constituirse en un referente en su área en materia de calidad y mejora continua.  </t>
+  </si>
+  <si>
+    <t>Es la capacidad para mantenerse actualizado en las áreas de especialización y de aplicar la pericia profesional y personal en el desarrollo de su trabajo y en la resolución de problemas técnicos y profesionales. Demuestra interés por compartir y hacer llegar a otras personas ese conocimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparte espontáneamente con los demás su conocimiento y experiencia para ayudarlos  a resolver problemas técnicos. Toma la iniciativa de colaborar y compartir su mayor experticia con  pacientes, y /O compañeros </t>
+  </si>
+  <si>
+    <t>Aplica conocimientos especializados y detallados, desarrolla conocimiento y experiencia laboral (teórica y práctica, comparte su experiencia profesional y conocimientos con los demás; utiliza la tecnología para alcanzar los objetivos de trabajo; demuestra coordinación, habilidad y comprensión de los distintos  proceso  de la organización</t>
+  </si>
+  <si>
+    <t>La capacidad que tiene una persona para identificar los problemas, realizar un
+análisis lógico. Reconocer la información significativa, buscar y coordinar los
+datos relevantes, realizando comparaciones, estableciendo prioridades,
+identificando secuencias temporales relaciones causales entre los
+componentes.</t>
+  </si>
+  <si>
+    <t>Capacidad para analizar relaciones entre las pequeñas partes de un
+problema y establecer prioridades para las tareas según su importancia</t>
+  </si>
+  <si>
+    <t>Capacidad para analizar las relaciones entre muchas partes de un
+problema y reconocer varias causas o consecuencias de las acciones.
+Habilidad para anticipar obstáculos y prever los próximos pasos</t>
+  </si>
+  <si>
+    <t>Capacidad para realizar análisis complejos, organizando, secuenciando y
+analizando sistemas interdependientes que le permiten desagregar
+problemas en sus partes y componentes; comunica claramente sus
+conclusiones y las hace comprensibles a otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la habilidad por desarrollar nuevos conocimientos y destrezas, el interés por la formación continua y la curiosidad por ampliar capacidades, tanto técnicas como competencias de comportamiento. Se trata de adquirir esas habilidades y de llevarlas además a la práctica para ejercitarlas e interiorizarlas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiende las instrucciones con facilidad y es capaz de seguirlas. 
+reconoce sus errores e intenta corregirlos, buscando aprender  y corregir .
+</t>
+  </si>
+  <si>
+    <t>Realiza preguntas sobre asuntos técnicos y funcionales. desarrolla nuevas ideas y propuestas luego de estudiar, y procesa los temas que están vinculados con su desempeño.</t>
+  </si>
+  <si>
+    <t>Puede  de absorber información compleja e integrarla a su propio método de aprendizaje rápidamente y   usa con facilidad la nueva información adquirida para aplicarla en su organización</t>
+  </si>
+  <si>
+    <t>Es la capacidad de proponer y realizar nuevas cosas o ideas que permitan dar solución a problemas, desarrollar estrategias, planes de mejoramiento, procesos o mejorar lo conocido, actuando de forma proactiva dentro de un marco de creatividad y rompimiento de esquemas.</t>
+  </si>
+  <si>
+    <t>Es la capacidad para establecer una visión de futuro que posibilite el logro de su misión, así como para comprender las tendencias cambiantes del entorno y para establecer líneas de actuación consecuentes con los objetivos.</t>
+  </si>
+  <si>
+    <t>Identifica los asuntos organizacionales más importantes en el corto plazo, detectando las oportunidades y dificultades relacionadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Define y desarrolla estrategias que posibiliten el logro de los objetivos organizacionales y evalúa su impacto en el éxito del negocio</t>
+  </si>
+  <si>
+    <t>Propone alternativas y soluciones innovadoras respondiendo a las necesidades del mercado. Se anticipa a los posibles escenarios. Genera alternativas de solución innovadoras que permiten desarrollar los procesos, la organización o encontrar nuevas oportunidades de  negocios.</t>
+  </si>
+  <si>
+    <t>Programa anticipadamente sus actividades teniendo en cuenta distintas variables que pueden influir en la realización de su labor.</t>
+  </si>
+  <si>
+    <t>Tiene claridad/propone objetivos realizables y  responsabilidades asignadas ,  conoce las metas a cumplir, y monitorea permanente su aproximación o realización.</t>
+  </si>
+  <si>
+    <t>Es la capacidad por lograr y/o por sobrepasar los estándares  y los resultados  establecidos. Incluye el interés por fijarse metas retadoras y la disposición para dedicar tiempo para mejorar el rendimiento, intentar algo nuevo y  perseverar en el logro de un propósito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es capaz de auto organizarse y logra planificar las actividades relacionadas a su Área, de manera de
+asegurar el cumplimiento de los objetivos definidos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establece prioridades y objetivos retadores pero alcanzables para sí y para otros, que generan gran impacto y valor agregado para la organización. </t>
+  </si>
+  <si>
+    <t>Es el  compromiso a instrucciones y procedimientos a la estrategia organizacional, respetando valores, procedimientos y políticas establecidas buscando los logros como propios y favoreciendo los intereses de la organización y  evitar los errores humanos en los procesos.</t>
+  </si>
+  <si>
+    <t>Cumple y  apoya a sus compañeros para  cumplir  con los procedimientos definidos para la realización de las tareas de
+su Área.</t>
+  </si>
+  <si>
+    <t>Reconoce los conductos regulares, argumenta de manera respetuosa sus opiniones y  las comunica en las líneas de dirección asignadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la capacidad de trabajar efectivamente en una variedad de situaciones con diferentes personas o grupos, apreciando las perspectivas diferentes y opuestas sobre un tema, y adaptándose a los cambios en la organización o en los roles de trabajo de forma positiva.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se adapta rápidamente al uso de nuevos procedimientos o sistemas de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la capacidad de Trabajar  de manera productiva en un ambiente de alta presión; mantiene las emociones bajo control en situaciones difíciles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frente a una alta demanda, responde con sentido de urgencia priorizando las actividades y  el control de las emociones que la presion genere. </t>
+  </si>
+  <si>
+    <t>Equilibra las exigencias del trabajo con la vida personal. Mantiene una actitud positiva en el trabajo, maneja bien las críticas y aprende de ellas.</t>
+  </si>
+  <si>
+    <t>Es la capacidad de actuar de manera eficiente ante la solicitud del cliente tanto interno como externo, comprendiendo sus necesidades y orientando todas las acciones en la identificación de oportunidades de mejora para generar mayor valor y satisfacer sus expectativas.</t>
+  </si>
+  <si>
+    <t>Identifica las necesidades del cliente,   Genera soluciones para satisfacer las necesidades de los demás y se esfuerza por mejorar continuamente su servicio</t>
+  </si>
+  <si>
+    <t>Da seguimiento a sus clientes, identifica oportunidades de mejora y ofrece respuesta oportunas valida la consecucion de la satisfaccion de cliente interno y externo.</t>
+  </si>
+  <si>
+    <t>Es la capacidad del trabajador para ejercer influencia sobre su equipo, promoviendo en ellos una
+alta motivación por conseguir cada objetivo en su trabajo, lo cual conllevará a alcanzar la meta
+final de la organización. Implica la habilidad para comunicar una visión de la estrategia
+organizacional, haciendo que esta visión parezca no sólo posible sino también deseable por los
+receptores o interesados, creando en ellos un compromiso genuino.</t>
+  </si>
+  <si>
+    <t>Se asegura de que el grupo disponga de la información   necesaria para realizar su trabajo y expone las razones en las que se basan las decisiones tomadas.</t>
+  </si>
+  <si>
+    <t>Es usualmente es persuasivo y ocasionalmente logra promover en sus compañeros una
+mayor motivación hacia su trabajo; sin embargo, en ocasiones no logra influir sobre trabajadores
+que se encuentran en un nivel funcional distinto al suyo.</t>
+  </si>
+  <si>
+    <t>Ejerce una fuerte influencia en todos los miembros de la empresa. Tiene la habilidad de
+persuadirlos y promover en ellos una fuerte motivación para que se comprometan con la empresa
+en todos los sentidos y se esfuercen por brindar un servicio de gran calidad. Se comunica de forma
+eficaz, eficiente y consistente con los trabajadores en los distintos niveles funcionales.</t>
+  </si>
+  <si>
+    <t>Cambia su opinión ante nuevos argumentos o evidencias Rectifica cuando comprende que se está defendiendo de una postura equivocada</t>
+  </si>
+  <si>
+    <t>Liderazgo</t>
+  </si>
+  <si>
+    <t>Habilidad para orientar la acción de los grupos humanos en una dirección determinada, inspirando valores de acción y anticipando escenario de desarrollo de la acción de ese grupo.</t>
+  </si>
+  <si>
+    <t>Capacidad para colaborar con los demás, formar parte de un grupo y trabajar con otras áreas de la organización con el propósito de alcanzar, en conjunto, la estrategia organizacional, subordinar los intereses personales a los objetivos grupales. Implica tener expectativas positivas respecto de los demás, comprender a los otros, y generar y mantener un buen clima de trabajo.</t>
+  </si>
+  <si>
+    <t>Capacidad para comportarse de acuerdo con los valores morales, las buenas costumbres y prácticas profesionales, y para actuar con seguridad y congruencia entre el decir y el hacer. Capacidad para construir relaciones duraderas basadas en un comportamiento honesto y veraz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica y responde a las necesidades del cliente para entregarle productos o servicios que cumplan con sus requerimientos e incluso superen sus expectativas.</t>
   </si>
 </sst>
 </file>
@@ -398,9 +469,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,16 +809,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601BDD1C-315F-498A-83CA-DB10B503864B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="4" max="4" width="110" customWidth="1"/>
     <col min="5" max="5" width="102.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="176.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="210.6640625" bestFit="1" customWidth="1"/>
@@ -752,25 +826,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -778,22 +852,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -801,85 +875,91 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,22 +967,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -910,45 +990,45 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -956,22 +1036,22 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -979,45 +1059,45 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,62 +1105,62 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1088,22 +1168,22 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1111,45 +1191,45 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1157,53 +1237,59 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1211,25 +1297,42 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>91</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/competencias.xlsx
+++ b/competencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Ramirez\Desktop\Consultoria\Dashboards\CentroOrtopediaPoblado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEC3C5-F5E6-4F2F-975C-96F96DEAE5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45327B2-AF4D-4C17-97CF-B81ED6D413A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,30 +916,30 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -947,42 +947,42 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -993,19 +993,19 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1016,42 +1016,42 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1062,19 +1062,19 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,42 +1085,42 @@
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1131,14 +1131,20 @@
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1148,20 +1154,14 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">

--- a/competencias.xlsx
+++ b/competencias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Ramirez\Desktop\Consultoria\Dashboards\CentroOrtopediaPoblado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45327B2-AF4D-4C17-97CF-B81ED6D413A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91CA8C-CA36-4919-937E-A30B539F6D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D0F0DC0-A7B9-4FD1-A249-6D5F55889B05}"/>
   </bookViews>
@@ -812,11 +812,12 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110" customWidth="1"/>
     <col min="5" max="5" width="102.44140625" bestFit="1" customWidth="1"/>
